--- a/src/main/java/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/testdata/FreeCRMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7200"/>
+    <workbookView windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +92,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -559,156 +552,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1092,9 +1084,6 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
